--- a/Hands-on_Ex/Hands-on_Ex06/data/arrivals_by_air.xlsx
+++ b/Hands-on_Ex/Hands-on_Ex06/data/arrivals_by_air.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tskam\ISSS608\Hands-on_Ex\Hands-on_Ex06\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smu-my.sharepoint.com/personal/belinda_lim_2024_mitb_smu_edu_sg/Documents/Desktop/Visual Analytics/belindalim/ISSS608-VAA/Hands-on_Ex/Hands-on_Ex06/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74D4BC2-6A38-45CF-A6C6-CB4FD5F53059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D74D4BC2-6A38-45CF-A6C6-CB4FD5F53059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D0661DE-138C-4AF6-A481-8F9AE4658CA2}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -245,9 +245,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -285,9 +285,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,26 +320,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,26 +355,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -567,13 +533,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>36526</v>
       </c>
@@ -793,7 +762,7 @@
         <v>5034</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>36557</v>
       </c>
@@ -903,7 +872,7 @@
         <v>3938</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>36586</v>
       </c>
@@ -1013,7 +982,7 @@
         <v>4668</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>36617</v>
       </c>
@@ -1123,7 +1092,7 @@
         <v>6890</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>36647</v>
       </c>
@@ -1233,7 +1202,7 @@
         <v>7006</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>36678</v>
       </c>
@@ -1343,7 +1312,7 @@
         <v>7634</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>36708</v>
       </c>
@@ -1453,7 +1422,7 @@
         <v>9502</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>36739</v>
       </c>
@@ -1563,7 +1532,7 @@
         <v>6968</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>36770</v>
       </c>
@@ -1673,7 +1642,7 @@
         <v>9582</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>36800</v>
       </c>
@@ -1783,7 +1752,7 @@
         <v>7586</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>36831</v>
       </c>
@@ -1893,7 +1862,7 @@
         <v>6034</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>36861</v>
       </c>
@@ -2003,7 +1972,7 @@
         <v>5713</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>36892</v>
       </c>
@@ -2113,7 +2082,7 @@
         <v>6238</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>36923</v>
       </c>
@@ -2223,7 +2192,7 @@
         <v>4607</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>36951</v>
       </c>
@@ -2333,7 +2302,7 @@
         <v>5059</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>36982</v>
       </c>
@@ -2443,7 +2412,7 @@
         <v>6484</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>37012</v>
       </c>
@@ -2553,7 +2522,7 @@
         <v>7396</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>37043</v>
       </c>
@@ -2663,7 +2632,7 @@
         <v>8133</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>37073</v>
       </c>
@@ -2773,7 +2742,7 @@
         <v>9521</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>37104</v>
       </c>
@@ -2883,7 +2852,7 @@
         <v>7526</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>37135</v>
       </c>
@@ -2993,7 +2962,7 @@
         <v>8904</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>37165</v>
       </c>
@@ -3103,7 +3072,7 @@
         <v>7083</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>37196</v>
       </c>
@@ -3213,7 +3182,7 @@
         <v>4986</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>37226</v>
       </c>
@@ -3323,7 +3292,7 @@
         <v>5255</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>37257</v>
       </c>
@@ -3433,7 +3402,7 @@
         <v>5918</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>37288</v>
       </c>
@@ -3543,7 +3512,7 @@
         <v>3959</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>37316</v>
       </c>
@@ -3653,7 +3622,7 @@
         <v>5370</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>37347</v>
       </c>
@@ -3763,7 +3732,7 @@
         <v>6096</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>37377</v>
       </c>
@@ -3873,7 +3842,7 @@
         <v>7279</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>37408</v>
       </c>
@@ -3983,7 +3952,7 @@
         <v>9173</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>37438</v>
       </c>
@@ -4093,7 +4062,7 @@
         <v>9462</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>37469</v>
       </c>
@@ -4203,7 +4172,7 @@
         <v>8218</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>37500</v>
       </c>
@@ -4313,7 +4282,7 @@
         <v>9518</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>37530</v>
       </c>
@@ -4423,7 +4392,7 @@
         <v>7476</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>37561</v>
       </c>
@@ -4533,7 +4502,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>37591</v>
       </c>
@@ -4643,7 +4612,7 @@
         <v>5523</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37622</v>
       </c>
@@ -4753,7 +4722,7 @@
         <v>6665</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>37653</v>
       </c>
@@ -4863,7 +4832,7 @@
         <v>4028</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>37681</v>
       </c>
@@ -4973,7 +4942,7 @@
         <v>4741</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>37712</v>
       </c>
@@ -5083,7 +5052,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>37742</v>
       </c>
@@ -5193,7 +5162,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>37773</v>
       </c>
@@ -5303,7 +5272,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>37803</v>
       </c>
@@ -5413,7 +5382,7 @@
         <v>6929</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>37834</v>
       </c>
@@ -5523,7 +5492,7 @@
         <v>7135</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>37865</v>
       </c>
@@ -5633,7 +5602,7 @@
         <v>8217</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>37895</v>
       </c>
@@ -5743,7 +5712,7 @@
         <v>7387</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>37926</v>
       </c>
@@ -5853,7 +5822,7 @@
         <v>5978</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>37956</v>
       </c>
@@ -5963,7 +5932,7 @@
         <v>5356</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>37987</v>
       </c>
@@ -6073,7 +6042,7 @@
         <v>6107</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>38018</v>
       </c>
@@ -6183,7 +6152,7 @@
         <v>4887</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>38047</v>
       </c>
@@ -6293,7 +6262,7 @@
         <v>5468</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>38078</v>
       </c>
@@ -6403,7 +6372,7 @@
         <v>7731</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>38108</v>
       </c>
@@ -6513,7 +6482,7 @@
         <v>8555</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>38139</v>
       </c>
@@ -6623,7 +6592,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>38169</v>
       </c>
@@ -6733,7 +6702,7 @@
         <v>11801</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>38200</v>
       </c>
@@ -6843,7 +6812,7 @@
         <v>9396</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>38231</v>
       </c>
@@ -6953,7 +6922,7 @@
         <v>11258</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>38261</v>
       </c>
@@ -7063,7 +7032,7 @@
         <v>8813</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>38292</v>
       </c>
@@ -7173,7 +7142,7 @@
         <v>6314</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>38322</v>
       </c>
@@ -7283,7 +7252,7 @@
         <v>6755</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>38353</v>
       </c>
@@ -7393,7 +7362,7 @@
         <v>7626</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>38384</v>
       </c>
@@ -7503,7 +7472,7 @@
         <v>4941</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>38412</v>
       </c>
@@ -7613,7 +7582,7 @@
         <v>6613</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>38443</v>
       </c>
@@ -7723,7 +7692,7 @@
         <v>8464</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>38473</v>
       </c>
@@ -7833,7 +7802,7 @@
         <v>9672</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>38504</v>
       </c>
@@ -7943,7 +7912,7 @@
         <v>10424</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>38534</v>
       </c>
@@ -8053,7 +8022,7 @@
         <v>12822</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>38565</v>
       </c>
@@ -8163,7 +8132,7 @@
         <v>10266</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>38596</v>
       </c>
@@ -8273,7 +8242,7 @@
         <v>11836</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>38626</v>
       </c>
@@ -8383,7 +8352,7 @@
         <v>10181</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>38657</v>
       </c>
@@ -8493,7 +8462,7 @@
         <v>7577</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>38687</v>
       </c>
@@ -8603,7 +8572,7 @@
         <v>7833</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>38718</v>
       </c>
@@ -8713,7 +8682,7 @@
         <v>8021</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>38749</v>
       </c>
@@ -8823,7 +8792,7 @@
         <v>4847</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>38777</v>
       </c>
@@ -8933,7 +8902,7 @@
         <v>5551</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>38808</v>
       </c>
@@ -9043,7 +9012,7 @@
         <v>9325</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>38838</v>
       </c>
@@ -9153,7 +9122,7 @@
         <v>8873</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>38869</v>
       </c>
@@ -9263,7 +9232,7 @@
         <v>11405</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>38899</v>
       </c>
@@ -9373,7 +9342,7 @@
         <v>12942</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>38930</v>
       </c>
@@ -9483,7 +9452,7 @@
         <v>11236</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>38961</v>
       </c>
@@ -9593,7 +9562,7 @@
         <v>11675</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>38991</v>
       </c>
@@ -9703,7 +9672,7 @@
         <v>9209</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>39022</v>
       </c>
@@ -9813,7 +9782,7 @@
         <v>6695</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>39052</v>
       </c>
@@ -9923,7 +9892,7 @@
         <v>6984</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>39083</v>
       </c>
@@ -10033,7 +10002,7 @@
         <v>6739</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>39114</v>
       </c>
@@ -10143,7 +10112,7 @@
         <v>4474</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>39142</v>
       </c>
@@ -10253,7 +10222,7 @@
         <v>5805</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>39173</v>
       </c>
@@ -10363,7 +10332,7 @@
         <v>7883</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>39203</v>
       </c>
@@ -10473,7 +10442,7 @@
         <v>9261</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>39234</v>
       </c>
@@ -10583,7 +10552,7 @@
         <v>11314</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>39264</v>
       </c>
@@ -10693,7 +10662,7 @@
         <v>12229</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>39295</v>
       </c>
@@ -10803,7 +10772,7 @@
         <v>9758</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>39326</v>
       </c>
@@ -10913,7 +10882,7 @@
         <v>11217</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>39356</v>
       </c>
@@ -11023,7 +10992,7 @@
         <v>10223</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>39387</v>
       </c>
@@ -11133,7 +11102,7 @@
         <v>7236</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>39417</v>
       </c>
@@ -11243,7 +11212,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>39448</v>
       </c>
@@ -11353,7 +11322,7 @@
         <v>7806</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>39479</v>
       </c>
@@ -11463,7 +11432,7 @@
         <v>4729</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>39508</v>
       </c>
@@ -11573,7 +11542,7 @@
         <v>6106</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>39539</v>
       </c>
@@ -11683,7 +11652,7 @@
         <v>7560</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>39569</v>
       </c>
@@ -11793,7 +11762,7 @@
         <v>9090</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>39600</v>
       </c>
@@ -11903,7 +11872,7 @@
         <v>9681</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>39630</v>
       </c>
@@ -12013,7 +11982,7 @@
         <v>11732</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>39661</v>
       </c>
@@ -12123,7 +12092,7 @@
         <v>9642</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>39692</v>
       </c>
@@ -12233,7 +12202,7 @@
         <v>9769</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>39722</v>
       </c>
@@ -12343,7 +12312,7 @@
         <v>9787</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>39753</v>
       </c>
@@ -12453,7 +12422,7 @@
         <v>6477</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>39783</v>
       </c>
@@ -12563,7 +12532,7 @@
         <v>7047</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>39814</v>
       </c>
@@ -12673,7 +12642,7 @@
         <v>6755</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>39845</v>
       </c>
@@ -12783,7 +12752,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>39873</v>
       </c>
@@ -12893,7 +12862,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>39904</v>
       </c>
@@ -13003,7 +12972,7 @@
         <v>5911</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>39934</v>
       </c>
@@ -13113,7 +13082,7 @@
         <v>7041</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>39965</v>
       </c>
@@ -13223,7 +13192,7 @@
         <v>8303</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>39995</v>
       </c>
@@ -13333,7 +13302,7 @@
         <v>9813</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>40026</v>
       </c>
@@ -13443,7 +13412,7 @@
         <v>8173</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>40057</v>
       </c>
@@ -13553,7 +13522,7 @@
         <v>8504</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>40087</v>
       </c>
@@ -13663,7 +13632,7 @@
         <v>8316</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>40118</v>
       </c>
@@ -13773,7 +13742,7 @@
         <v>6785</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>40148</v>
       </c>
@@ -13883,7 +13852,7 @@
         <v>6138</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>40179</v>
       </c>
@@ -13993,7 +13962,7 @@
         <v>7503</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>40210</v>
       </c>
@@ -14103,7 +14072,7 @@
         <v>3992</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>40238</v>
       </c>
@@ -14213,7 +14182,7 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>40269</v>
       </c>
@@ -14323,7 +14292,7 @@
         <v>5911</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>40299</v>
       </c>
@@ -14433,7 +14402,7 @@
         <v>7502</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>40330</v>
       </c>
@@ -14543,7 +14512,7 @@
         <v>8748</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>40360</v>
       </c>
@@ -14653,7 +14622,7 @@
         <v>9793</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>40391</v>
       </c>
@@ -14763,7 +14732,7 @@
         <v>8299</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>40422</v>
       </c>
@@ -14873,7 +14842,7 @@
         <v>8603</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>40452</v>
       </c>
@@ -14983,7 +14952,7 @@
         <v>7963</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>40483</v>
       </c>
@@ -15093,7 +15062,7 @@
         <v>6629</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>40513</v>
       </c>
@@ -15203,7 +15172,7 @@
         <v>6762</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>40544</v>
       </c>
@@ -15313,7 +15282,7 @@
         <v>7233</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>40575</v>
       </c>
@@ -15423,7 +15392,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>40603</v>
       </c>
@@ -15533,7 +15502,7 @@
         <v>6329</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>40634</v>
       </c>
@@ -15643,7 +15612,7 @@
         <v>10338</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>40664</v>
       </c>
@@ -15753,7 +15722,7 @@
         <v>11897</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>40695</v>
       </c>
@@ -15863,7 +15832,7 @@
         <v>11837</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>40725</v>
       </c>
@@ -15973,7 +15942,7 @@
         <v>14680</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>40756</v>
       </c>
@@ -16083,7 +16052,7 @@
         <v>10787</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>40787</v>
       </c>
@@ -16193,7 +16162,7 @@
         <v>9078</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>40817</v>
       </c>
@@ -16303,7 +16272,7 @@
         <v>9078</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>40848</v>
       </c>
@@ -16413,7 +16382,7 @@
         <v>8177</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>40878</v>
       </c>
@@ -16523,7 +16492,7 @@
         <v>9638</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>40909</v>
       </c>
@@ -16633,7 +16602,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>40940</v>
       </c>
@@ -16743,7 +16712,7 @@
         <v>5993</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>40969</v>
       </c>
@@ -16853,7 +16822,7 @@
         <v>6806</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>41000</v>
       </c>
@@ -16963,7 +16932,7 @@
         <v>9241</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>41030</v>
       </c>
@@ -17073,7 +17042,7 @@
         <v>9473</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>41061</v>
       </c>
@@ -17183,7 +17152,7 @@
         <v>11332</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>41091</v>
       </c>
@@ -17293,7 +17262,7 @@
         <v>12761</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>41122</v>
       </c>
@@ -17403,7 +17372,7 @@
         <v>10033</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>41153</v>
       </c>
@@ -17513,7 +17482,7 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>41183</v>
       </c>
@@ -17623,7 +17592,7 @@
         <v>10128</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>41214</v>
       </c>
@@ -17733,7 +17702,7 @@
         <v>7708</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>41244</v>
       </c>
@@ -17843,7 +17812,7 @@
         <v>9397</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>41275</v>
       </c>
@@ -17953,7 +17922,7 @@
         <v>10782</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>41306</v>
       </c>
@@ -18063,7 +18032,7 @@
         <v>5242</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>41334</v>
       </c>
@@ -18173,7 +18142,7 @@
         <v>6425</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>41365</v>
       </c>
@@ -18283,7 +18252,7 @@
         <v>8158</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>41395</v>
       </c>
@@ -18393,7 +18362,7 @@
         <v>9443</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>41426</v>
       </c>
@@ -18503,7 +18472,7 @@
         <v>9976</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>41456</v>
       </c>
@@ -18613,7 +18582,7 @@
         <v>13519</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>41487</v>
       </c>
@@ -18723,7 +18692,7 @@
         <v>9991</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>41518</v>
       </c>
@@ -18833,7 +18802,7 @@
         <v>10344</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>41548</v>
       </c>
@@ -18943,7 +18912,7 @@
         <v>9475</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>41579</v>
       </c>
@@ -19053,7 +19022,7 @@
         <v>7752</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>41609</v>
       </c>
@@ -19163,7 +19132,7 @@
         <v>9438</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>41640</v>
       </c>
@@ -19273,7 +19242,7 @@
         <v>10247</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>41671</v>
       </c>
@@ -19383,7 +19352,7 @@
         <v>6120</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>41699</v>
       </c>
@@ -19493,7 +19462,7 @@
         <v>6041</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>41730</v>
       </c>
@@ -19603,7 +19572,7 @@
         <v>8523</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>41760</v>
       </c>
@@ -19713,7 +19682,7 @@
         <v>9921</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>41791</v>
       </c>
@@ -19823,7 +19792,7 @@
         <v>10196</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>41821</v>
       </c>
@@ -19933,7 +19902,7 @@
         <v>12781</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>41852</v>
       </c>
@@ -20043,7 +20012,7 @@
         <v>10119</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>41883</v>
       </c>
@@ -20153,7 +20122,7 @@
         <v>9864</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>41913</v>
       </c>
@@ -20263,7 +20232,7 @@
         <v>8325</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>41944</v>
       </c>
@@ -20373,7 +20342,7 @@
         <v>6822</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>41974</v>
       </c>
@@ -20483,7 +20452,7 @@
         <v>9012</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>42005</v>
       </c>
@@ -20593,7 +20562,7 @@
         <v>10802</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>42036</v>
       </c>
@@ -20703,7 +20672,7 @@
         <v>5655</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>42064</v>
       </c>
@@ -20813,7 +20782,7 @@
         <v>7036</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>42095</v>
       </c>
@@ -20923,7 +20892,7 @@
         <v>8555</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>42125</v>
       </c>
@@ -21033,7 +21002,7 @@
         <v>9326</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>42156</v>
       </c>
@@ -21143,7 +21112,7 @@
         <v>10879</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>42186</v>
       </c>
@@ -21253,7 +21222,7 @@
         <v>13838</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>42217</v>
       </c>
@@ -21363,7 +21332,7 @@
         <v>11481</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>42248</v>
       </c>
@@ -21473,7 +21442,7 @@
         <v>11462</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>42278</v>
       </c>
@@ -21583,7 +21552,7 @@
         <v>10240</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>42309</v>
       </c>
@@ -21693,7 +21662,7 @@
         <v>8347</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>42339</v>
       </c>
@@ -21803,7 +21772,7 @@
         <v>8648</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>42370</v>
       </c>
@@ -21913,7 +21882,7 @@
         <v>9595</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>42401</v>
       </c>
@@ -22023,7 +21992,7 @@
         <v>4928</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>42430</v>
       </c>
@@ -22133,7 +22102,7 @@
         <v>5808</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>42461</v>
       </c>
@@ -22243,7 +22212,7 @@
         <v>8667</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>42491</v>
       </c>
@@ -22353,7 +22322,7 @@
         <v>9216</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>42522</v>
       </c>
@@ -22463,7 +22432,7 @@
         <v>10169</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>42552</v>
       </c>
@@ -22573,7 +22542,7 @@
         <v>13362</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>42583</v>
       </c>
@@ -22683,7 +22652,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>42614</v>
       </c>
@@ -22793,7 +22762,7 @@
         <v>10856</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>42644</v>
       </c>
@@ -22903,7 +22872,7 @@
         <v>9886</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>42675</v>
       </c>
@@ -23013,7 +22982,7 @@
         <v>7876</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>42705</v>
       </c>
@@ -23123,7 +23092,7 @@
         <v>8907</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>42736</v>
       </c>
@@ -23233,7 +23202,7 @@
         <v>9390</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>42767</v>
       </c>
@@ -23343,7 +23312,7 @@
         <v>6134</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>42795</v>
       </c>
@@ -23453,7 +23422,7 @@
         <v>6833</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>42826</v>
       </c>
@@ -23563,7 +23532,7 @@
         <v>10084</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>42856</v>
       </c>
@@ -23673,7 +23642,7 @@
         <v>9457</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>42887</v>
       </c>
@@ -23783,7 +23752,7 @@
         <v>10723</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>42917</v>
       </c>
@@ -23893,7 +23862,7 @@
         <v>13783</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>42948</v>
       </c>
@@ -24003,7 +23972,7 @@
         <v>10501</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>42979</v>
       </c>
@@ -24113,7 +24082,7 @@
         <v>11406</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>43009</v>
       </c>
@@ -24223,7 +24192,7 @@
         <v>10771</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>43040</v>
       </c>
@@ -24333,7 +24302,7 @@
         <v>8414</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>43070</v>
       </c>
@@ -24443,7 +24412,7 @@
         <v>9578</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>43101</v>
       </c>
@@ -24553,7 +24522,7 @@
         <v>10390</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>43132</v>
       </c>
@@ -24663,7 +24632,7 @@
         <v>5647</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>43160</v>
       </c>
@@ -24773,7 +24742,7 @@
         <v>7026</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>43191</v>
       </c>
@@ -24883,7 +24852,7 @@
         <v>10141</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>43221</v>
       </c>
@@ -24993,7 +24962,7 @@
         <v>10121</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>43252</v>
       </c>
@@ -25103,7 +25072,7 @@
         <v>11935</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>43282</v>
       </c>
@@ -25213,7 +25182,7 @@
         <v>15665</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>43313</v>
       </c>
@@ -25323,7 +25292,7 @@
         <v>11930</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>43344</v>
       </c>
@@ -25433,7 +25402,7 @@
         <v>12647</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>43374</v>
       </c>
@@ -25543,7 +25512,7 @@
         <v>11215</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>43405</v>
       </c>
@@ -25653,7 +25622,7 @@
         <v>7841</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>43435</v>
       </c>
@@ -25763,7 +25732,7 @@
         <v>10718</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>43466</v>
       </c>
@@ -25873,7 +25842,7 @@
         <v>11107</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>43497</v>
       </c>
@@ -25983,7 +25952,7 @@
         <v>6101</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>43525</v>
       </c>
@@ -26093,7 +26062,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <v>43556</v>
       </c>
@@ -26203,7 +26172,7 @@
         <v>12601</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
         <v>43586</v>
       </c>
@@ -26313,7 +26282,7 @@
         <v>11711</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>43617</v>
       </c>
@@ -26423,7 +26392,7 @@
         <v>13515</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>43647</v>
       </c>
@@ -26533,7 +26502,7 @@
         <v>16844</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <v>43678</v>
       </c>
@@ -26643,7 +26612,7 @@
         <v>13138</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
         <v>43709</v>
       </c>
@@ -26753,7 +26722,7 @@
         <v>14684</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <v>43739</v>
       </c>
@@ -26863,7 +26832,7 @@
         <v>12360</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>43770</v>
       </c>
@@ -26973,7 +26942,7 @@
         <v>8951</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <v>43800</v>
       </c>
@@ -27498,4 +27467,10 @@
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{6951d41b-6b8e-4636-984f-012bff14ba18}" enabled="1" method="Standard" siteId="{c98a79ca-5a9a-4791-a243-f06afd67464d}" removed="0"/>
+</clbl:labelList>
 </file>